--- a/study/LPIC202.xlsx
+++ b/study/LPIC202.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user_dev05\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Documents\present\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$100</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>DNSSECで使用する公開鍵と秘密鍵を作成するコマンドは次のうちどれか。</t>
     <phoneticPr fontId="1"/>
@@ -312,11 +315,224 @@
     <t>:include:</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ApacheでSSLを利用している。作成したサーバ秘密鍵のファイルを指定するssl.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApacheでSSLを利用している。認証局（CA）が発行するサーバ証明書のファイルを指定するssl.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apacheの設定でKeepAliveが有効の場合、同じクライアントから次のリクエストを受け取るまでの最大待ち時間を15秒としたい。httpd.confにはどのように記述すればよいか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApacheでSSLを利用するために必要なモジュールは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPを利用したウェブサイトを構築した。「http://example.com/」とアクセスしたときにindex.htmlではなくindex.phpを表示させたい。既存のindex.htmlを削除または移動することなく、index.phpを表示させるにはhttpd.confにどのように記載すればよいか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Squidでキャッシュされるデータの最小サイズを指定するsquid.confの設定項目は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストを受け付けるIPアドレスとポート番号を指定するnginx.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apacheでダイジェスト認証を使用したい。パスワードファイルを指定するhttpd.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACEメソッドの使用を有効化・無効化するhttpd.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApacheでBASIC認証を使用している。「.htpasswd」というパスワードファイルを新規作成するコマンドは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apacheを起動する方法として適切なものをすべて選択せよ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Squidでアクセス制御の設定をしている。曜日と時間を指定するACLタイプは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Squidでユーザ認証を行う際に使用するACLタイプは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>httpdの子プロセスの実行ユーザと実行グループを指定するhttpd.confのディレクティブは次のうちどれか。(全て選択)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apacheの設定で、クライアントに返信する応答ヘッダにApacheのバージョンを含めないようにしたい。設定する必要があるhttpd.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在使用しているサーバにはIPアドレスが1つ割り当てられている。このサーバで2つのウェブサイトを管理したい。下線部に当てはまるhttpd.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllowOverrideディレクティブを使用できる、Apacheの設定ファイルのセクションは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックスとして返すファイルを指定するnginx.confのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apacheでダイジェスト認証を使用したい。使用するためにはhttpd.confもしくは.htaccessファイルにどのように記述する必要があるか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApacheでSSLを利用している。自己認証局を作成する方法として適切なものは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「/etc/nologin」ファイルが存在する場合、root以外のユーザのログインを禁止するPAMのモジュールは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般名称を表す属性名は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ldapsearchコマンドを使用してLDAPサーバ（ローカルホスト）に登録されているエントリを以下の条件で検索したい。下記より適切なものを選択せよ。
+・SASLを使用せずに簡易認証を行う
+・検索を開始する位置は「dc=example,dc=com」
+・属性名cnの値がtaro、かつ属性名telephoneNumberの値が03で始まるエントリを検索する
+・LDIF形式で表示する（コメント、LDAPバージョンは表示しない）
+・検索結果として出力する属性はuserPasswordとする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenLDAPにおいて、指定した識別名で接続したユーザにアクセス制御を行いたい。識別名を指定するaccessディレクティブのパラメータは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のオブジェクトクラスを定義するための基底クラスとなるオブジェクトクラスの種類は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドデータベースの種類を指定する「slapd.conf」ファイルのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenLDAPにおいて、ある属性名の値を公開せずに比較にのみ使用可能としたい。アクセス権として指定するaccessディレクティブの適切なパラメータは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込む設定ファイルを指定する「slapd.conf」ファイルのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenLDAPにおいて、指定した検索フィルタにマッチするエントリに対してアクセス制御を行いたい。アクセス対象として指定するaccessディレクティブの適切なパラメータは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ldapsearchコマンドを使用してLDAPサーバ（ローカルホスト）に登録されているエントリを以下の条件で検索したい。下記より適切なものを選択せよ。
+・SASLを使用せずに簡易認証を行う
+・検索を開始する位置は「dc=example,dc=com」
+・属性名cnの値がtaro、または属性名telephoneNumberの値が03で始まるエントリを検索する
+・LDIF形式で表示する（コメント、LDAPバージョンは表示しない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DHCPサーバの設定で、デフォルトゲートウェイを指定する設定項目は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenLDAPの管理用コマンドの共通オプションで、使用するデータベースをDB番号で指定するものは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slapaddコマンドで、LDIFファイル「users.ldif」のエントリをデータベースに追加したい。適切なコマンドは次のうちどれか。なお、エラー発生時も処理を継続することとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースファイルを格納するディレクトリを指定する「slapd.conf」ファイルのディレクティブは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAMの設定で、モジュールが成功、且つ上の行にあるrequiredのモジュールが全て成功している場合、その時点で認証の許可を通知するコントロールはどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDAPのアクセス制御の設定で、エントリのデータはユーザ自身のみ変更することが可能で、その他の認証されているユーザは参照のみとしたい。また、認証前のユーザには認証を許可したい。下線部の記述として適切なものは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DHCPサーバの設定で、WINSサーバを指定する設定項目は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenLDAPの管理用コマンドの共通オプションで、使用する設定ファイルを指定するものは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDIFファイルでエントリの設定を行う際、エントリごとに最初に記述する属性は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DHCPサーバの設定で、IPアドレスなどの最大貸し出し期限を指定する設定項目は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iptablesにおいて、テーブル「filter」を指定した場合にデフォルトで使用できるチェインは次のうちどれか（全て選択）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vsftpdの設定で、匿名のユーザによるファイルのアップロードを許可したい。vsftpd.confファイルにはどのように記述すればよいか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサーバ11.22.33.44へのパケットの転送を許可したい。適切なコマンドは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iptables.backupファイルに保存されているiptablesの設定を復元したい。適切なコマンドは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.168.100.0/24から送られてきたICMPパケットを拒否し、また拒否した事を送信元に通知したい。適切なコマンドは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの改ざんを検知するためのセキュリティツールは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenVPNがデフォルトで使用するポート番号は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「/etc/ssh/sshd_config」の設定で、X11転送を許可または禁止する設定項目は次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSHポートフォワーディングを使って、ローカルのポート3306に接続するとSSHサーバ（アドレス：ssh-server）内のデータベースサービス（ポート番号：3306）に接続するようにトンネルを用意したい。正しいコマンドはどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティの脆弱性をネットワーク経由でチェックするセキュリティツールは次のうちどれか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -340,12 +556,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -354,15 +585,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,6 +691,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -492,6 +743,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -644,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C100" sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -656,322 +924,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1">
+      <c r="A1" s="2">
         <v>15502</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1">
-        <f>COUNTIF(C1:C52,"○")</f>
-        <v>28</v>
+        <f>COUNTIF(C1:C100,"○")</f>
+        <v>52</v>
       </c>
       <c r="E1">
-        <f>COUNTIF(C1:C52,"×")</f>
+        <f>COUNTIF(C1:C100,"×")</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>14345</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>15288</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>15503</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>14330</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>14340</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>14338</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>14337</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>15287</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>14336</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>14350</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>14352</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>14328</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>14333</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14339</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>23856</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>14343</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>15500</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>14344</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>14353</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>14442</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>14345</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>15288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>15503</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>14330</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>14340</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>14338</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>14337</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>15287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>14336</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>14350</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>14352</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>14328</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>14333</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14339</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>23856</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>14343</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>15500</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>14344</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>14353</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>14442</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>14444</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>14375</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>14358</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>14397</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>14369</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
         <v>14428</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
@@ -979,35 +1247,35 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>14423</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
         <v>14408</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
         <v>14374</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D30" t="s">
@@ -1015,115 +1283,115 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>14398</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>14365</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
         <v>14370</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>14402</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
         <v>14400</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
         <v>14426</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
         <v>14373</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>14366</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>14432</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
         <v>14384</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D40" t="s">
@@ -1131,24 +1399,24 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>14626</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
         <v>24160</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D42" t="s">
@@ -1156,107 +1424,662 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>14607</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>14605</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
         <v>14625</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
         <v>14631</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47">
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
         <v>14639</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
         <v>14624</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49">
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
         <v>14600</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="50" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
         <v>14623</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D50" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>14515</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>14514</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>14464</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>14510</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>14457</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>14523</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>15430</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>14496</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>14455</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>15412</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>14481</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>14447</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>14538</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>14544</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>15410</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>14508</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>14719</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>15435</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>14494</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>15596</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>14580</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>15201</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="90" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>14588</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>15238</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>15220</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>15249</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>15241</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>15245</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>15237</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>14589</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>14549</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>15272</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>15279</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>15254</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>14570</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>15232</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>14555</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>15270</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>15210</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>14557</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>15562</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>14677</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>14710</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>14667</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>14654</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>14680</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>15583</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>14706</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>24167</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>14682</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;F&amp;R&amp;P ページ</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>